--- a/Tutorial 1/regression.xlsx
+++ b/Tutorial 1/regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Desktop\PLACEMENT PREPARE\IIT Admission\IIT Hyderabad\Polymer and Bio-systems\Subjects\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya\Desktop\Data Analysis tools for experimental research\Tutorial 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05DAE6-6650-446F-BA28-A69819E04324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B91AB-E391-48FE-ABB0-63F83C463F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-1152" windowWidth="23256" windowHeight="12456" xr2:uid="{BCBEC42A-89A6-4BC4-850A-03006245B23C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCBEC42A-89A6-4BC4-850A-03006245B23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>G</t>
   </si>
@@ -45,6 +34,21 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>G**2</t>
+  </si>
+  <si>
+    <t>H**2</t>
+  </si>
+  <si>
+    <t>G*H</t>
+  </si>
+  <si>
+    <t>Y*G</t>
+  </si>
+  <si>
+    <t>Y*H</t>
   </si>
 </sst>
 </file>
@@ -89,13 +93,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80EEF9C-531F-4100-AC2E-DC9596923880}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,20 +434,30 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>73</v>
       </c>
@@ -453,11 +467,26 @@
       <c r="C2" s="1">
         <v>3096</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="1">
+        <f>A2*A2</f>
+        <v>5329</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2*B2</f>
+        <v>53.29</v>
+      </c>
+      <c r="F2" s="1">
+        <f>A2*B2</f>
+        <v>532.9</v>
+      </c>
+      <c r="G2" s="1">
+        <f>A2*C2</f>
+        <v>226008</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2*B2</f>
+        <v>22600.799999999999</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -466,7 +495,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>87</v>
       </c>
@@ -476,11 +505,26 @@
       <c r="C3" s="1">
         <v>3519</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="1">
+        <f>A3*A3</f>
+        <v>7569</v>
+      </c>
+      <c r="E3" s="1">
+        <f>B3*B3</f>
+        <v>36</v>
+      </c>
+      <c r="F3" s="1">
+        <f>A3*B3</f>
+        <v>-522</v>
+      </c>
+      <c r="G3" s="1">
+        <f>A3*C3</f>
+        <v>306153</v>
+      </c>
+      <c r="H3" s="1">
+        <f>C3*B3</f>
+        <v>-21114</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -489,7 +533,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -499,11 +543,26 @@
       <c r="C4" s="1">
         <v>3383</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D21" si="0">A4*A4</f>
+        <v>6889</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E21" si="1">B4*B4</f>
+        <v>13.690000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F21" si="2">A4*B4</f>
+        <v>-307.10000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G21" si="3">A4*C4</f>
+        <v>280789</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H21" si="4">C4*B4</f>
+        <v>-12517.1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -512,7 +571,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>78</v>
       </c>
@@ -522,11 +581,26 @@
       <c r="C5" s="1">
         <v>3261</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>6084</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>254358</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>8152.5</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -535,7 +609,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>82</v>
       </c>
@@ -545,11 +619,26 @@
       <c r="C6" s="1">
         <v>3360</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>-180.4</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>275520</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>-7392.0000000000009</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -558,7 +647,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>80</v>
       </c>
@@ -568,11 +657,26 @@
       <c r="C7" s="1">
         <v>3334</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>266720</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>2333.7999999999997</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -581,7 +685,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>83</v>
       </c>
@@ -591,11 +695,26 @@
       <c r="C8" s="1">
         <v>3388</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>6889</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>8.41</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>-240.7</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>281204</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>-9825.1999999999989</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -604,7 +723,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>86</v>
       </c>
@@ -614,11 +733,26 @@
       <c r="C9" s="1">
         <v>3481</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>7396</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>38.440000000000005</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>-533.20000000000005</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>299366</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>-21582.2</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -627,7 +761,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -637,11 +771,26 @@
       <c r="C10" s="1">
         <v>3120</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>26.009999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>234000</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>15911.999999999998</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -650,7 +799,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>82</v>
       </c>
@@ -660,11 +809,26 @@
       <c r="C11" s="1">
         <v>3378</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>-106.60000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>276996</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>-4391.4000000000005</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -673,22 +837,37 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>80</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3326</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>266080</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>2660.8</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -696,22 +875,37 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>82</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>-2.4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>3365</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>-196.79999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>275930</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>-8076</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -719,7 +913,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>77</v>
       </c>
@@ -729,11 +923,26 @@
       <c r="C14" s="1">
         <v>3215</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>5929</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.41</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>223.29999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>247555</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>9323.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -742,7 +951,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>81</v>
       </c>
@@ -752,11 +961,26 @@
       <c r="C15" s="1">
         <v>3306</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>6561</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>-121.5</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>267786</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>-4959</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -765,7 +989,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>79</v>
       </c>
@@ -775,11 +999,26 @@
       <c r="C16" s="1">
         <v>3266</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>6241</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>86.9</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>258014</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>3592.6000000000004</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -788,7 +1027,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>78</v>
       </c>
@@ -798,11 +1037,26 @@
       <c r="C17" s="1">
         <v>3229</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>6084</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.61</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>148.19999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>251862</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>6135.0999999999995</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -811,7 +1065,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>76</v>
       </c>
@@ -821,11 +1075,26 @@
       <c r="C18" s="1">
         <v>3193</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>5776</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>242668</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>11175.5</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -834,7 +1103,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -844,11 +1113,26 @@
       <c r="C19" s="1">
         <v>3315</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>265200</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>1657.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -857,7 +1141,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>80</v>
       </c>
@@ -867,11 +1151,26 @@
       <c r="C20" s="1">
         <v>3280</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>262400</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>-984</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -880,7 +1179,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>81</v>
       </c>
@@ -890,11 +1189,26 @@
       <c r="C21" s="1">
         <v>3335</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>6561</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>-48.6</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>270135</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>-2001</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -902,6 +1216,40 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>SUM(A2:A21)</f>
+        <v>1603</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B2:B21)</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C2:C21)</f>
+        <v>66150</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>128705</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(E2:E21)</f>
+        <v>223.94</v>
+      </c>
+      <c r="F22" s="1">
+        <f>SUM(F2:F21)</f>
+        <v>-286.10000000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <f>SUM(G2:G21)</f>
+        <v>5308744</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SUM(H2:H21)</f>
+        <v>-9297.8000000000175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
